--- a/Projects/CCBZA/Data/Template_GROCERY_January.xlsx
+++ b/Projects/CCBZA/Data/Template_GROCERY_January.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="KPI" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,6 +20,8 @@
     <definedName function="false" hidden="true" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">Availability!$A$1:$S$12</definedName>
     <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Survey!$A$1:$L$11</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Survey!$A$1:$L$11</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">Survey!$A$1:$L$11</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="d" vbProcedure="false">Availability!$A$1:$S$12</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="h" vbProcedure="false">Availability!$A$1:$S$12</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="y" vbProcedure="false">Availability!$A$1:$S$12</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_FilterDatabase_0" vbProcedure="false">Availability!$A$1:$S$12</definedName>
@@ -76,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="171">
   <si>
     <t xml:space="preserve">Set Name</t>
   </si>
@@ -367,9 +369,6 @@
   </si>
   <si>
     <t xml:space="preserve">2nd display Gondola End/ Additional Display/Cooler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Powerplay Countertop Cooler </t>
   </si>
   <si>
     <t xml:space="preserve">Powerplay Countertop Cooler in Kiosk</t>
@@ -954,9 +953,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>522360</xdr:colOff>
+      <xdr:colOff>521640</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>34920</xdr:rowOff>
+      <xdr:rowOff>34200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -966,7 +965,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11094840" cy="8799480"/>
+          <a:ext cx="11713320" cy="9073080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -996,9 +995,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2380680</xdr:colOff>
+      <xdr:colOff>2379960</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>43560</xdr:rowOff>
+      <xdr:rowOff>42840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1008,7 +1007,49 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10067040" cy="9334080"/>
+          <a:ext cx="10514160" cy="9624960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1961280</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>123120</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10095480" cy="9524160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1050,28 +1091,28 @@
   </sheetPr>
   <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.8883720930233"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="40.2418604651163"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.4279069767442"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.2"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="30.8883720930233"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.76744186046512"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.8139534883721"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.6"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="19.6883720930233"/>
-    <col collapsed="false" hidden="false" max="14" min="10" style="0" width="9.6"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.693023255814"/>
-    <col collapsed="false" hidden="false" max="1020" min="16" style="0" width="9.6"/>
-    <col collapsed="false" hidden="false" max="1025" min="1021" style="0" width="12.4279069767442"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.6093023255814"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="42.7023255813953"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.4139534883721"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.9348837209302"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.6093023255814"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.01395348837209"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.4279069767442"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.093023255814"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="20.7953488372093"/>
+    <col collapsed="false" hidden="false" max="14" min="10" style="0" width="10.093023255814"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.306976744186"/>
+    <col collapsed="false" hidden="false" max="1020" min="16" style="0" width="10.093023255814"/>
+    <col collapsed="false" hidden="false" max="1025" min="1021" style="0" width="12.9209302325581"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1094,7 +1135,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" s="5" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" s="5" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -1113,7 +1154,7 @@
       </c>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" s="5" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" s="5" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -1424,7 +1465,7 @@
       <c r="O13" s="5"/>
       <c r="Q13" s="5"/>
     </row>
-    <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
         <v>31</v>
       </c>
@@ -1454,7 +1495,7 @@
       <c r="O14" s="5"/>
       <c r="Q14" s="5"/>
     </row>
-    <row r="15" s="5" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" s="5" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
         <v>31</v>
       </c>
@@ -1475,7 +1516,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
         <v>31</v>
       </c>
@@ -1506,7 +1547,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1522,19 +1563,19 @@
   </sheetPr>
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.5813953488372"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.0883720930233"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.1209302325581"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="7.01395348837209"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.446511627907"/>
-    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="11.0744186046512"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="9.35348837209302"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.2"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.2"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.5953488372093"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="7.26046511627907"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.1813953488372"/>
+    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="11.8139534883721"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="9.84651162790698"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1585,35 +1626,35 @@
   </sheetPr>
   <dimension ref="A1:U11"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="bottomRight" activeCell="N13" activeCellId="0" sqref="N13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3813953488372"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="83.9302325581395"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.2883720930233"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.9209302325581"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="12" width="133.274418604651"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.1209302325581"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="88.9720930232558"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.5023255813953"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.0279069767442"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="12" width="141.520930232558"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.29302325581395"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.01395348837209"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.26046511627907"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.29302325581395"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="7.01395348837209"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.52093023255814"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="12.1813953488372"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="11.0744186046512"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="9.84651162790698"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="8.86046511627907"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="73.5906976744186"/>
-    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="9.6"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="7.26046511627907"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.76744186046512"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="12.6744186046512"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="11.8139534883721"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="10.3395348837209"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="9.35348837209302"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="78.0232558139535"/>
+    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="10.093023255814"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -1697,9 +1738,8 @@
       <c r="Q2" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="S2" s="0"/>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
         <v>18</v>
       </c>
@@ -1731,7 +1771,7 @@
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
@@ -1795,7 +1835,7 @@
       <c r="T5" s="5"/>
       <c r="U5" s="5"/>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
@@ -1830,7 +1870,7 @@
       <c r="T6" s="5"/>
       <c r="U6" s="5"/>
     </row>
-    <row r="7" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" s="5" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="17" t="s">
         <v>20</v>
       </c>
@@ -1862,15 +1902,15 @@
       <c r="Q7" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="S7" s="0"/>
-    </row>
-    <row r="8" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="17" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="17" t="s">
         <v>72</v>
       </c>
+      <c r="C8" s="5"/>
       <c r="D8" s="14" t="s">
         <v>61</v>
       </c>
@@ -1878,8 +1918,11 @@
         <v>73</v>
       </c>
       <c r="F8" s="14"/>
-      <c r="J8" s="5" t="n">
-        <v>22</v>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="11" t="n">
+        <v>24</v>
       </c>
       <c r="K8" s="5" t="n">
         <v>1</v>
@@ -1896,15 +1939,15 @@
       <c r="Q8" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="S8" s="0"/>
-    </row>
-    <row r="9" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="17" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="17" t="s">
         <v>74</v>
       </c>
+      <c r="C9" s="5"/>
       <c r="D9" s="14" t="s">
         <v>61</v>
       </c>
@@ -1912,8 +1955,11 @@
         <v>75</v>
       </c>
       <c r="F9" s="14"/>
-      <c r="J9" s="5" t="n">
-        <v>19</v>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="11" t="n">
+        <v>20</v>
       </c>
       <c r="K9" s="5" t="n">
         <v>1</v>
@@ -1930,9 +1976,8 @@
       <c r="Q9" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="S9" s="0"/>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
         <v>20</v>
       </c>
@@ -1946,8 +1991,8 @@
         <v>77</v>
       </c>
       <c r="F10" s="14"/>
-      <c r="J10" s="5" t="n">
-        <v>22</v>
+      <c r="J10" s="11" t="n">
+        <v>24</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>1</v>
@@ -1967,7 +2012,7 @@
       <c r="T10" s="5"/>
       <c r="U10" s="5"/>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
         <v>22</v>
       </c>
@@ -2023,26 +2068,26 @@
   </sheetPr>
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.1953488372093"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="95.6186046511628"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.7348837209302"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.106976744186"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.7813953488372"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.52093023255814"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.1813953488372"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="11.0744186046512"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="21.1674418604651"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="28.6744186046512"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="9.6"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.7953488372093"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="101.525581395349"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.7209302325581"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.0883720930233"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.5209302325581"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.76744186046512"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.6744186046512"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="11.8139534883721"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="22.2744186046512"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="30.2744186046512"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="10.093023255814"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -2076,7 +2121,7 @@
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
@@ -2106,7 +2151,7 @@
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -2134,7 +2179,7 @@
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>8</v>
       </c>
@@ -2160,7 +2205,7 @@
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>28</v>
       </c>
@@ -2186,7 +2231,7 @@
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="17" t="s">
         <v>30</v>
       </c>
@@ -2211,7 +2256,7 @@
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="17" t="s">
         <v>30</v>
       </c>
@@ -2236,12 +2281,12 @@
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="17" t="s">
         <v>97</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>98</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>90</v>
@@ -2258,12 +2303,12 @@
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="17" t="s">
         <v>35</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>90</v>
@@ -2283,12 +2328,12 @@
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="17" t="s">
         <v>35</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>90</v>
@@ -2308,12 +2353,12 @@
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="17" t="s">
         <v>33</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>90</v>
@@ -2349,38 +2394,38 @@
     <tabColor rgb="FFFFC000"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:8"/>
+  <dimension ref="A1:W8"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="X1" activeCellId="0" sqref="X1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.5209302325581"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="67.4372093023256"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.2883720930233"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="85.6511627906977"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.7813953488372"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="26.5813953488372"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="31.9953488372093"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.4279069767442"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="23.9953488372093"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="29.7813953488372"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="26.5813953488372"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="31.9953488372093"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="20.4279069767442"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="7.01395348837209"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.1813953488372"/>
-    <col collapsed="false" hidden="false" max="17" min="16" style="0" width="11.0744186046512"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="9.84651162790698"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="8.86046511627907"/>
-    <col collapsed="false" hidden="false" max="21" min="20" style="0" width="9.6"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="13.7813953488372"/>
-    <col collapsed="false" hidden="false" max="1025" min="23" style="0" width="9.6"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2604651162791"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="71.4976744186046"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.5023255813953"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="90.9441860465116"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="31.5023255813953"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="28.3023255813953"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="33.9674418604651"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="21.4139534883721"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="25.4744186046512"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="31.5023255813953"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="28.3023255813953"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="33.9674418604651"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="21.4139534883721"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="7.26046511627907"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.6744186046512"/>
+    <col collapsed="false" hidden="false" max="17" min="16" style="0" width="11.8139534883721"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="10.3395348837209"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="9.35348837209302"/>
+    <col collapsed="false" hidden="false" max="21" min="20" style="0" width="10.093023255814"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="14.5209302325581"/>
+    <col collapsed="false" hidden="false" max="1025" min="23" style="0" width="10.093023255814"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -2391,34 +2436,34 @@
         <v>44</v>
       </c>
       <c r="D1" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="L1" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="M1" s="9" t="s">
         <v>110</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>111</v>
       </c>
       <c r="N1" s="9" t="s">
         <v>39</v>
@@ -2439,15 +2484,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" s="5" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>113</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>58</v>
@@ -2456,10 +2501,10 @@
         <v>57</v>
       </c>
       <c r="F2" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G2" s="24" t="s">
         <v>114</v>
-      </c>
-      <c r="G2" s="24" t="s">
-        <v>115</v>
       </c>
       <c r="H2" s="5" t="n">
         <v>75</v>
@@ -2476,15 +2521,13 @@
       <c r="S2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="U2" s="0"/>
-      <c r="AMJ2" s="0"/>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>56</v>
@@ -2496,10 +2539,10 @@
         <v>57</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G3" s="24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H3" s="5" t="n">
         <v>50</v>
@@ -2519,27 +2562,27 @@
       <c r="V3" s="5"/>
       <c r="W3" s="5"/>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>56</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E4" s="24" t="s">
         <v>61</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G4" s="24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H4" s="5" t="n">
         <v>50</v>
@@ -2559,27 +2602,27 @@
       <c r="V4" s="5"/>
       <c r="W4" s="5"/>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>56</v>
       </c>
       <c r="D5" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="F5" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>124</v>
-      </c>
       <c r="G5" s="24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H5" s="5" t="n">
         <v>65</v>
@@ -2599,12 +2642,12 @@
       <c r="V5" s="5"/>
       <c r="W5" s="5"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>56</v>
@@ -2616,10 +2659,10 @@
         <v>57</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H6" s="5" t="n">
         <v>50</v>
@@ -2639,27 +2682,27 @@
       <c r="V6" s="5"/>
       <c r="W6" s="5"/>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>56</v>
       </c>
       <c r="D7" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>129</v>
-      </c>
       <c r="G7" s="24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H7" s="5" t="n">
         <v>20</v>
@@ -2679,18 +2722,18 @@
       <c r="V7" s="5"/>
       <c r="W7" s="5"/>
     </row>
-    <row r="8" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" s="5" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="17" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="E8" s="5" t="s">
         <v>131</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>132</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>58</v>
@@ -2720,7 +2763,6 @@
       <c r="S8" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="U8" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2741,24 +2783,24 @@
   </sheetPr>
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O1" activeCellId="0" sqref="O1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.5813953488372"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.246511627907"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.3348837209302"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="7.01395348837209"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.1813953488372"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="11.0744186046512"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.84651162790698"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.86046511627907"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="9.6"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.2"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.2279069767442"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.4279069767442"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="7.26046511627907"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.6744186046512"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="11.8139534883721"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.3395348837209"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.35348837209302"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="10.093023255814"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
@@ -2790,15 +2832,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="26" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="26" t="s">
         <v>133</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>134</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>2</v>
@@ -2837,22 +2879,22 @@
   </sheetPr>
   <dimension ref="1:22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.9209302325581"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="57.8372093023256"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.9813953488372"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.153488372093"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.106976744186"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="12" width="69.4093023255814"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.84651162790698"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.0279069767442"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="61.4093023255814"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.9488372093023"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="23.3813953488372"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.0883720930233"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="12" width="73.5906976744186"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="10.3395348837209"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -2860,7 +2902,7 @@
         <v>36</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>44</v>
@@ -2884,7 +2926,7 @@
         <v>50</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L1" s="9" t="s">
         <v>38</v>
@@ -2916,17 +2958,17 @@
         <v>20</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="27" t="s">
         <v>137</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>138</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="14" t="s">
         <v>61</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K2" s="5" t="n">
         <v>1</v>
@@ -2947,7 +2989,7 @@
         <v>10</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="V2" s="5"/>
       <c r="W2" s="5"/>
@@ -2958,17 +3000,17 @@
         <v>22</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="14" t="s">
         <v>61</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K3" s="5" t="n">
         <v>1</v>
@@ -2989,7 +3031,7 @@
         <v>10</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="V3" s="5"/>
       <c r="W3" s="5"/>
@@ -3000,23 +3042,23 @@
         <v>24</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>143</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>144</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="F4" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="G4" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="H4" s="15" t="s">
         <v>146</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>147</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>1</v>
@@ -3034,7 +3076,7 @@
         <v>10</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="V4" s="5"/>
       <c r="W4" s="5"/>
@@ -3045,22 +3087,22 @@
         <v>24</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="F5" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>149</v>
-      </c>
       <c r="G5" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K5" s="5" t="n">
         <v>1</v>
@@ -3078,7 +3120,7 @@
         <v>10</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="V5" s="5"/>
       <c r="W5" s="5"/>
@@ -3089,19 +3131,19 @@
         <v>26</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>151</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>152</v>
       </c>
       <c r="E6" s="14" t="s">
         <v>61</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K6" s="5" t="n">
         <v>1</v>
@@ -3119,7 +3161,7 @@
         <v>10</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="V6" s="5"/>
       <c r="W6" s="5"/>
@@ -3130,19 +3172,19 @@
         <v>32</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>156</v>
-      </c>
       <c r="E7" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G7" s="23" t="s">
         <v>57</v>
@@ -3169,7 +3211,7 @@
         <v>11</v>
       </c>
       <c r="S7" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="V7" s="5"/>
       <c r="W7" s="5"/>
@@ -3180,19 +3222,19 @@
         <v>32</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="E8" s="5" t="s">
+      <c r="F8" s="15" t="s">
         <v>159</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>160</v>
       </c>
       <c r="G8" s="23" t="s">
         <v>57</v>
@@ -3201,10 +3243,10 @@
         <v>58</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L8" s="5" t="n">
         <v>2</v>
@@ -3219,7 +3261,7 @@
         <v>11</v>
       </c>
       <c r="S8" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="V8" s="5"/>
       <c r="W8" s="5"/>
@@ -3230,19 +3272,19 @@
         <v>32</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="F9" s="15" t="s">
         <v>162</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>163</v>
       </c>
       <c r="G9" s="23" t="s">
         <v>57</v>
@@ -3269,7 +3311,7 @@
         <v>11</v>
       </c>
       <c r="S9" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="V9" s="5"/>
       <c r="W9" s="5"/>
@@ -3280,19 +3322,19 @@
         <v>32</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C10" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>156</v>
-      </c>
       <c r="E10" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G10" s="23" t="s">
         <v>57</v>
@@ -3319,7 +3361,7 @@
         <v>11</v>
       </c>
       <c r="S10" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="V10" s="5"/>
       <c r="W10" s="5"/>
@@ -3330,19 +3372,19 @@
         <v>32</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C11" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>156</v>
-      </c>
       <c r="E11" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G11" s="23" t="s">
         <v>57</v>
@@ -3369,7 +3411,7 @@
         <v>11</v>
       </c>
       <c r="S11" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="V11" s="5"/>
       <c r="W11" s="5"/>
@@ -3380,19 +3422,19 @@
         <v>32</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C12" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>156</v>
-      </c>
       <c r="E12" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G12" s="23" t="s">
         <v>57</v>
@@ -3401,10 +3443,10 @@
         <v>58</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L12" s="5" t="n">
         <v>2</v>
@@ -3419,27 +3461,27 @@
         <v>11</v>
       </c>
       <c r="S12" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="V12" s="5"/>
       <c r="W12" s="5"/>
       <c r="AMJ12" s="5"/>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="17" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>61</v>
       </c>
       <c r="F13" s="28" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K13" s="0" t="n">
         <v>1</v>
@@ -3457,7 +3499,7 @@
         <v>10</v>
       </c>
       <c r="S13" s="0" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="V13" s="5"/>
       <c r="W13" s="5"/>
@@ -3467,16 +3509,16 @@
         <v>25</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E14" s="14" t="s">
         <v>61</v>
       </c>
       <c r="F14" s="28" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H14" s="15"/>
       <c r="K14" s="5" t="n">
@@ -3495,9 +3537,8 @@
         <v>10</v>
       </c>
       <c r="S14" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="U14" s="0"/>
+        <v>139</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
